--- a/data_output/mean_cscar.xlsx
+++ b/data_output/mean_cscar.xlsx
@@ -399,13 +399,13 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>0.02076673870736059</v>
+        <v>0.02086709505615778</v>
       </c>
       <c r="D2">
         <v>0.0454866068354404</v>
       </c>
       <c r="E2">
-        <v>0.000444868633823699</v>
+        <v>0.0004475984611386939</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -423,13 +423,13 @@
         <v>150</v>
       </c>
       <c r="C3">
-        <v>0.01575532838367975</v>
+        <v>0.01576553562860868</v>
       </c>
       <c r="D3">
         <v>0.02828010395567511</v>
       </c>
       <c r="E3">
-        <v>0.002109038956131128</v>
+        <v>0.002109057084614856</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -447,10 +447,10 @@
         <v>250</v>
       </c>
       <c r="C4">
-        <v>0.008003698939582209</v>
+        <v>0.008005220247883591</v>
       </c>
       <c r="D4">
-        <v>0.1026049024054238</v>
+        <v>0.1026049750767463</v>
       </c>
       <c r="E4">
         <v>0.001237186488808094</v>
@@ -477,7 +477,7 @@
         <v>0.07020245200039613</v>
       </c>
       <c r="E5">
-        <v>0.001284519535568195</v>
+        <v>0.001284659881720741</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -501,7 +501,7 @@
         <v>0.08995595173586104</v>
       </c>
       <c r="E6">
-        <v>0.0003878603609610641</v>
+        <v>0.000388080600037864</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         <v>0.08488528095628968</v>
       </c>
       <c r="E7">
-        <v>0.0002041122670393913</v>
+        <v>0.0002085527003192288</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -543,13 +543,13 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>0.002427567259839752</v>
+        <v>0.002427574393509328</v>
       </c>
       <c r="D8">
-        <v>0.002362749755281426</v>
+        <v>0.002363012406628574</v>
       </c>
       <c r="E8">
-        <v>0.000328243580791752</v>
+        <v>0.0003284416408798867</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -567,13 +567,13 @@
         <v>150</v>
       </c>
       <c r="C9">
-        <v>4.080384650579032e-05</v>
+        <v>5.125326304942205e-05</v>
       </c>
       <c r="D9">
-        <v>0.0001622137118937232</v>
+        <v>0.000164876884066053</v>
       </c>
       <c r="E9">
-        <v>5.210201123949855e-05</v>
+        <v>5.542209626865803e-05</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -591,13 +591,13 @@
         <v>270</v>
       </c>
       <c r="C10">
-        <v>4.45031893151349e-06</v>
+        <v>5.748155938714026e-06</v>
       </c>
       <c r="D10">
-        <v>2.337926623895413e-05</v>
+        <v>2.49387989316263e-05</v>
       </c>
       <c r="E10">
-        <v>-4.9633543816164e-06</v>
+        <v>1.949057754956104e-06</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>

--- a/data_output/mean_cscar.xlsx
+++ b/data_output/mean_cscar.xlsx
@@ -399,13 +399,13 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>0.02086709505615778</v>
+        <v>0.02087630192582482</v>
       </c>
       <c r="D2">
-        <v>0.0454866068354404</v>
+        <v>0.04588335932451305</v>
       </c>
       <c r="E2">
-        <v>0.0004475984611386939</v>
+        <v>0.0004521202507185411</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -423,13 +423,13 @@
         <v>150</v>
       </c>
       <c r="C3">
-        <v>0.01576553562860868</v>
+        <v>0.01579864604002814</v>
       </c>
       <c r="D3">
-        <v>0.02828010395567511</v>
+        <v>0.0285017577879468</v>
       </c>
       <c r="E3">
-        <v>0.002109057084614856</v>
+        <v>0.002130177649073256</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -447,13 +447,13 @@
         <v>250</v>
       </c>
       <c r="C4">
-        <v>0.008005220247883591</v>
+        <v>0.008013419264702677</v>
       </c>
       <c r="D4">
-        <v>0.1026049750767463</v>
+        <v>0.1033466701741087</v>
       </c>
       <c r="E4">
-        <v>0.001237186488808094</v>
+        <v>0.001249684961120059</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -471,13 +471,13 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>0.02651926339049833</v>
+        <v>0.02678541351056563</v>
       </c>
       <c r="D5">
-        <v>0.07020245200039613</v>
+        <v>0.07045557108001925</v>
       </c>
       <c r="E5">
-        <v>0.001284659881720741</v>
+        <v>0.001297637946149369</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -495,13 +495,13 @@
         <v>150</v>
       </c>
       <c r="C6">
-        <v>0.02090590016219167</v>
+        <v>0.02111255281246378</v>
       </c>
       <c r="D6">
-        <v>0.08995595173586104</v>
+        <v>0.09043645485797649</v>
       </c>
       <c r="E6">
-        <v>0.000388080600037864</v>
+        <v>0.0003919584692805443</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -519,13 +519,13 @@
         <v>270</v>
       </c>
       <c r="C7">
-        <v>0.02365550339472434</v>
+        <v>0.02388783540447865</v>
       </c>
       <c r="D7">
-        <v>0.08488528095628968</v>
+        <v>0.08520461402790175</v>
       </c>
       <c r="E7">
-        <v>0.0002085527003192288</v>
+        <v>0.0002106276199986122</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -543,13 +543,13 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>0.002427574393509328</v>
+        <v>0.002451467859623437</v>
       </c>
       <c r="D8">
-        <v>0.002363012406628574</v>
+        <v>0.002374299671694753</v>
       </c>
       <c r="E8">
-        <v>0.0003284416408798867</v>
+        <v>0.0003317235718423188</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -567,13 +567,13 @@
         <v>150</v>
       </c>
       <c r="C9">
-        <v>5.125326304942205e-05</v>
+        <v>5.175343692363984e-05</v>
       </c>
       <c r="D9">
-        <v>0.000164876884066053</v>
+        <v>0.0001660008712715625</v>
       </c>
       <c r="E9">
-        <v>5.542209626865803e-05</v>
+        <v>5.597230642828571e-05</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -591,13 +591,13 @@
         <v>270</v>
       </c>
       <c r="C10">
-        <v>5.748155938714026e-06</v>
+        <v>5.805098423305398e-06</v>
       </c>
       <c r="D10">
-        <v>2.49387989316263e-05</v>
+        <v>2.513279401428346e-05</v>
       </c>
       <c r="E10">
-        <v>1.949057754956104e-06</v>
+        <v>1.968407282503376e-06</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
